--- a/class_imbalance_results.xlsx
+++ b/class_imbalance_results.xlsx
@@ -108,13 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,28 +443,28 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.9994663071262043</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.8698764926280926</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0.8601017070047723</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>0.7398373983739838</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.9381443298969072</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0.8272727272727273</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0.7724957555178268</v>
       </c>
     </row>
@@ -475,28 +472,28 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.9993679952810315</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0.9104073138819431</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0.9060201457520742</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>0.8211382113821138</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>0.8145161290322581</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0.8178137651821863</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>0.819805194805195</v>
       </c>
     </row>
@@ -504,28 +501,28 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.2893879385410522</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.6197310858855434</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0.5236239509759593</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.9512195121951219</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>0.002307328232231601</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>0.004603489996262124</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>0.01142578125</v>
       </c>
     </row>
@@ -533,28 +530,28 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.9992415943372377</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.9103440040435942</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0.9059627653793286</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0.8211382113821138</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>0.7593984962406015</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0.7890624999999999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>0.8079999999999999</v>
       </c>
     </row>
